--- a/doc/02_外部設計/機能一覧_B1.xlsx
+++ b/doc/02_外部設計/機能一覧_B1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B1\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91B41649-DBCF-423D-9A71-DA762766BA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5D870A-94FE-459E-9605-174131268ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="792" windowWidth="13968" windowHeight="12168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="180">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -658,6 +658,10 @@
   </si>
   <si>
     <t>ツアー名（期間）を選択すると、折りたたまれていたスコア表が表示される。</t>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -873,7 +877,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,6 +979,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1283,8 +1290,8 @@
   <dimension ref="B2:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+      <pane ySplit="7" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2387,7 +2394,7 @@
       <c r="C54" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="27" t="s">
         <v>138</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -2410,9 +2417,7 @@
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="D55" s="34"/>
       <c r="E55" s="2" t="s">
         <v>142</v>
       </c>
@@ -2420,7 +2425,7 @@
         <v>143</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>144</v>
@@ -2432,9 +2437,7 @@
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="D56" s="34"/>
       <c r="E56" s="2" t="s">
         <v>145</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>146</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>147</v>
@@ -2454,9 +2457,7 @@
     <row r="57" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="D57" s="34"/>
       <c r="E57" s="2" t="s">
         <v>148</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>146</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>149</v>
@@ -2476,9 +2477,7 @@
     <row r="58" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="D58" s="34"/>
       <c r="E58" s="2" t="s">
         <v>150</v>
       </c>
@@ -2486,7 +2485,7 @@
         <v>146</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>151</v>
@@ -2498,9 +2497,7 @@
     <row r="59" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="D59" s="28"/>
       <c r="E59" s="2" t="s">
         <v>152</v>
       </c>
@@ -2508,7 +2505,7 @@
         <v>146</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>153</v>
@@ -2524,7 +2521,7 @@
       <c r="C60" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="27" t="s">
         <v>138</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -2542,9 +2539,7 @@
     <row r="61" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="D61" s="34"/>
       <c r="E61" s="2" t="s">
         <v>157</v>
       </c>
@@ -2560,9 +2555,7 @@
     <row r="62" spans="2:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="D62" s="34"/>
       <c r="E62" s="2" t="s">
         <v>159</v>
       </c>
@@ -2570,7 +2563,7 @@
         <v>160</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>161</v>
@@ -2582,9 +2575,7 @@
     <row r="63" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="D63" s="28"/>
       <c r="E63" s="2" t="s">
         <v>162</v>
       </c>
@@ -2592,7 +2583,7 @@
         <v>160</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>163</v>
@@ -2736,7 +2727,9 @@
       <c r="I70" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="D54:D59"/>
+    <mergeCell ref="D60:D63"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
@@ -2759,6 +2752,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D3AB27C864B3094F9396A6D72E012482" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="8dbf4ff6d427b6b82566eed626a69291">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87cf0ee8-fe20-4b5a-8adf-0a4439756175" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9a586d23f517d02c855974cce848db7" ns3:_="">
     <xsd:import namespace="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
@@ -2938,14 +2939,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8FA15F9-22BC-4214-9370-AEB18E07E64D}">
   <ds:schemaRefs>
@@ -2955,6 +2948,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2426A42D-1BE6-434F-B174-E9F143150C95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21F044A3-51E3-4012-9FF8-16C6CAD16DD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2970,14 +2973,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2426A42D-1BE6-434F-B174-E9F143150C95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/02_外部設計/機能一覧_B1.xlsx
+++ b/doc/02_外部設計/機能一覧_B1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B1\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5D870A-94FE-459E-9605-174131268ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0CC56B-400A-4374-BBC3-7834A10AA4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-84" yWindow="168" windowWidth="12948" windowHeight="12168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -962,6 +962,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -979,9 +982,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1290,8 +1290,8 @@
   <dimension ref="B2:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
+      <pane ySplit="7" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1316,8 +1316,8 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
@@ -1329,26 +1329,26 @@
       <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="31">
         <v>45453</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="29"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="31">
         <v>45460</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -1385,7 +1385,7 @@
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1409,7 +1409,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
-      <c r="C9" s="32"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="10" spans="2:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
-      <c r="C10" s="33"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="12" spans="2:9" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
-      <c r="C12" s="28"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="18" t="s">
         <v>18</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>139</v>
       </c>
       <c r="F54" s="2"/>
-      <c r="G54" s="23" t="s">
+      <c r="G54" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H54" s="3" t="s">
@@ -2417,14 +2417,14 @@
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="34"/>
+      <c r="D55" s="28"/>
       <c r="E55" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="G55" s="24" t="s">
         <v>179</v>
       </c>
       <c r="H55" s="3" t="s">
@@ -2437,14 +2437,14 @@
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="34"/>
+      <c r="D56" s="28"/>
       <c r="E56" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="G56" s="24" t="s">
         <v>179</v>
       </c>
       <c r="H56" s="3" t="s">
@@ -2457,14 +2457,14 @@
     <row r="57" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="34"/>
+      <c r="D57" s="28"/>
       <c r="E57" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G57" s="23" t="s">
+      <c r="G57" s="24" t="s">
         <v>179</v>
       </c>
       <c r="H57" s="3" t="s">
@@ -2477,14 +2477,14 @@
     <row r="58" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="34"/>
+      <c r="D58" s="28"/>
       <c r="E58" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="24" t="s">
         <v>179</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -2497,14 +2497,14 @@
     <row r="59" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="28"/>
+      <c r="D59" s="29"/>
       <c r="E59" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G59" s="23" t="s">
+      <c r="G59" s="24" t="s">
         <v>179</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -2528,7 +2528,7 @@
         <v>155</v>
       </c>
       <c r="F60" s="2"/>
-      <c r="G60" s="23"/>
+      <c r="G60" s="24"/>
       <c r="H60" s="3" t="s">
         <v>156</v>
       </c>
@@ -2539,12 +2539,12 @@
     <row r="61" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="34"/>
+      <c r="D61" s="28"/>
       <c r="E61" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F61" s="2"/>
-      <c r="G61" s="23"/>
+      <c r="G61" s="24"/>
       <c r="H61" s="3" t="s">
         <v>158</v>
       </c>
@@ -2555,14 +2555,14 @@
     <row r="62" spans="2:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="34"/>
+      <c r="D62" s="28"/>
       <c r="E62" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G62" s="23" t="s">
+      <c r="G62" s="24" t="s">
         <v>179</v>
       </c>
       <c r="H62" s="3" t="s">
@@ -2575,14 +2575,14 @@
     <row r="63" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="28"/>
+      <c r="D63" s="29"/>
       <c r="E63" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G63" s="23" t="s">
+      <c r="G63" s="24" t="s">
         <v>179</v>
       </c>
       <c r="H63" s="3" t="s">
@@ -2752,14 +2752,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D3AB27C864B3094F9396A6D72E012482" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="8dbf4ff6d427b6b82566eed626a69291">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87cf0ee8-fe20-4b5a-8adf-0a4439756175" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9a586d23f517d02c855974cce848db7" ns3:_="">
     <xsd:import namespace="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
@@ -2939,6 +2931,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8FA15F9-22BC-4214-9370-AEB18E07E64D}">
   <ds:schemaRefs>
@@ -2948,16 +2948,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2426A42D-1BE6-434F-B174-E9F143150C95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21F044A3-51E3-4012-9FF8-16C6CAD16DD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2973,4 +2963,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2426A42D-1BE6-434F-B174-E9F143150C95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/02_外部設計/機能一覧_B1.xlsx
+++ b/doc/02_外部設計/機能一覧_B1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B1\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0CC56B-400A-4374-BBC3-7834A10AA4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAB7BE9-2E25-4163-BEA1-0AE6E3DD409A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-84" yWindow="168" windowWidth="12948" windowHeight="12168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -722,7 +722,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,12 +732,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,7 +871,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -948,9 +942,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -1290,8 +1281,8 @@
   <dimension ref="B2:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <pane ySplit="7" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54:I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1316,8 +1307,8 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
@@ -1329,26 +1320,26 @@
       <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="30">
         <v>45453</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="30">
         <v>45460</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -1385,7 +1376,7 @@
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1409,7 +1400,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
-      <c r="C9" s="33"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1431,7 +1422,7 @@
     </row>
     <row r="10" spans="2:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
-      <c r="C10" s="34"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1455,7 +1446,7 @@
       <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1479,7 +1470,7 @@
     </row>
     <row r="12" spans="2:9" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
-      <c r="C12" s="29"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="18" t="s">
         <v>18</v>
       </c>
@@ -1554,7 +1545,7 @@
       <c r="E15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -2377,7 +2368,7 @@
         <v>129</v>
       </c>
       <c r="F53" s="23"/>
-      <c r="G53" s="24" t="s">
+      <c r="G53" s="23" t="s">
         <v>21</v>
       </c>
       <c r="H53" s="3" t="s">
@@ -2394,14 +2385,14 @@
       <c r="C54" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="26" t="s">
         <v>138</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F54" s="2"/>
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="23" t="s">
         <v>21</v>
       </c>
       <c r="H54" s="3" t="s">
@@ -2417,14 +2408,14 @@
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="28"/>
+      <c r="D55" s="27"/>
       <c r="E55" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G55" s="24" t="s">
+      <c r="G55" s="23" t="s">
         <v>179</v>
       </c>
       <c r="H55" s="3" t="s">
@@ -2437,14 +2428,14 @@
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="28"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G56" s="24" t="s">
+      <c r="G56" s="23" t="s">
         <v>179</v>
       </c>
       <c r="H56" s="3" t="s">
@@ -2457,14 +2448,14 @@
     <row r="57" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="28"/>
+      <c r="D57" s="27"/>
       <c r="E57" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G57" s="24" t="s">
+      <c r="G57" s="23" t="s">
         <v>179</v>
       </c>
       <c r="H57" s="3" t="s">
@@ -2477,14 +2468,14 @@
     <row r="58" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="28"/>
+      <c r="D58" s="27"/>
       <c r="E58" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G58" s="24" t="s">
+      <c r="G58" s="23" t="s">
         <v>179</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -2497,14 +2488,14 @@
     <row r="59" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="29"/>
+      <c r="D59" s="28"/>
       <c r="E59" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G59" s="24" t="s">
+      <c r="G59" s="23" t="s">
         <v>179</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -2521,14 +2512,14 @@
       <c r="C60" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="26" t="s">
         <v>138</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>155</v>
       </c>
       <c r="F60" s="2"/>
-      <c r="G60" s="24"/>
+      <c r="G60" s="23"/>
       <c r="H60" s="3" t="s">
         <v>156</v>
       </c>
@@ -2539,12 +2530,12 @@
     <row r="61" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="28"/>
+      <c r="D61" s="27"/>
       <c r="E61" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F61" s="2"/>
-      <c r="G61" s="24"/>
+      <c r="G61" s="23"/>
       <c r="H61" s="3" t="s">
         <v>158</v>
       </c>
@@ -2555,14 +2546,14 @@
     <row r="62" spans="2:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="28"/>
+      <c r="D62" s="27"/>
       <c r="E62" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G62" s="24" t="s">
+      <c r="G62" s="23" t="s">
         <v>179</v>
       </c>
       <c r="H62" s="3" t="s">
@@ -2575,14 +2566,14 @@
     <row r="63" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="29"/>
+      <c r="D63" s="28"/>
       <c r="E63" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G63" s="24" t="s">
+      <c r="G63" s="23" t="s">
         <v>179</v>
       </c>
       <c r="H63" s="3" t="s">
@@ -2706,7 +2697,7 @@
       <c r="F69" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G69" s="25" t="s">
+      <c r="G69" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H69" s="14" t="s">
@@ -2752,6 +2743,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D3AB27C864B3094F9396A6D72E012482" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="8dbf4ff6d427b6b82566eed626a69291">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87cf0ee8-fe20-4b5a-8adf-0a4439756175" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9a586d23f517d02c855974cce848db7" ns3:_="">
     <xsd:import namespace="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
@@ -2931,14 +2930,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8FA15F9-22BC-4214-9370-AEB18E07E64D}">
   <ds:schemaRefs>
@@ -2948,6 +2939,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2426A42D-1BE6-434F-B174-E9F143150C95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21F044A3-51E3-4012-9FF8-16C6CAD16DD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2963,14 +2964,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2426A42D-1BE6-434F-B174-E9F143150C95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>